--- a/data.xlsx
+++ b/data.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c728d4590cf60d/Documents/GitHub/Dissertation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_F25DC773A252ABDACC104809411F73D45BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D217DEDA-29FB-45BF-86D1-AE4A4B5E6232}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="11_F25DC773A252ABDACC104809411F73D45BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16519E6B-3C85-408E-9F65-BEC44472EF4F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Noise</t>
   </si>
@@ -42,37 +53,46 @@
     <t>Swarm Density</t>
   </si>
   <si>
-    <t>Velocity Radius</t>
-  </si>
-  <si>
-    <t>Centering Radius</t>
-  </si>
-  <si>
-    <t>Avoidance Radius</t>
-  </si>
-  <si>
-    <t>Avoidance Weighting</t>
-  </si>
-  <si>
-    <t>Velocity Weighting</t>
-  </si>
-  <si>
-    <t>Centering Weighting</t>
-  </si>
-  <si>
     <t>0.035 units</t>
   </si>
   <si>
     <t>0.175 units</t>
   </si>
   <si>
-    <t>Vicseks run #1</t>
-  </si>
-  <si>
     <t>run #2</t>
   </si>
   <si>
-    <t>, 0.0907423378000488, 0.0852935152939582, 0.0872655974356314, 0.09883428109609761, 0.09323206318609124, 0.08474164799597794, 0.08876458044097318, 0.09016859341453339, 0.08702644353050742, 0.09699428257493022, 0.08074042701050535, 0.08359903860069529, 0.08350863648754903, 0.11254874544644097, 0.08610892668348016, 0.8559533246369007, 0.9938519320630875, 0.9996722768307145</t>
+    <t>run #3</t>
+  </si>
+  <si>
+    <t>Velocity run #1</t>
+  </si>
+  <si>
+    <t>run #4</t>
+  </si>
+  <si>
+    <t>run #5</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Repulsion Radius</t>
+  </si>
+  <si>
+    <t>Alignment Radius</t>
+  </si>
+  <si>
+    <t>Attraction Radius</t>
+  </si>
+  <si>
+    <t>Repulsion Weighting</t>
+  </si>
+  <si>
+    <t>Alignment Weighting</t>
+  </si>
+  <si>
+    <t>Attraction Weighting</t>
   </si>
 </sst>
 </file>
@@ -125,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +427,7 @@
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -414,16 +438,31 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,8 +478,27 @@
       <c r="F2">
         <v>8.9277700898453799E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>8.7431490620279204E-2</v>
+      </c>
+      <c r="H2">
+        <v>9.1755584443555097E-2</v>
+      </c>
+      <c r="I2">
+        <v>8.9099878561101506E-2</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(E2:I2)</f>
+        <v>8.9136555742580725E-2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>8.9136555742580725E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -456,13 +514,32 @@
       <c r="F3">
         <v>8.9268746512040198E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>8.9166131288838796E-2</v>
+      </c>
+      <c r="H3">
+        <v>8.8324606014205997E-2</v>
+      </c>
+      <c r="I3">
+        <v>8.4457178378571807E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J35" si="0">AVERAGE(E3:I3)</f>
+        <v>8.7715447971619481E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.95</v>
+      </c>
+      <c r="M3">
+        <v>8.7715447971619481E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0.9</v>
@@ -473,13 +550,32 @@
       <c r="F4">
         <v>9.27589214260926E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>8.42149839630741E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.72883042629575E-2</v>
+      </c>
+      <c r="I4">
+        <v>8.7580924179791103E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>8.7477560558972461E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.9</v>
+      </c>
+      <c r="M4">
+        <v>8.7477560558972461E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -487,13 +583,35 @@
       <c r="E5">
         <v>8.5209821348378206E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>9.0742337800048797E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.3721901984850494E-2</v>
+      </c>
+      <c r="H5">
+        <v>8.7297285945029404E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.4598619601777401E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>8.8313993336016861E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.85</v>
+      </c>
+      <c r="M5">
+        <v>8.8313993336016861E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="D6">
         <v>0.8</v>
@@ -501,10 +619,32 @@
       <c r="E6">
         <v>8.9268655033662006E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>8.5293515293958205E-2</v>
+      </c>
+      <c r="G6">
+        <v>9.1160210489605806E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.9428100082318301E-2</v>
+      </c>
+      <c r="I6">
+        <v>8.6654814403969493E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>8.8361059060702768E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8361059060702768E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2E-3</v>
@@ -515,10 +655,32 @@
       <c r="E7">
         <v>8.9382729964090302E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>8.7265597435631406E-2</v>
+      </c>
+      <c r="G7">
+        <v>9.2154364851349299E-2</v>
+      </c>
+      <c r="H7">
+        <v>9.0425085963310503E-2</v>
+      </c>
+      <c r="I7">
+        <v>9.3578546893329506E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>9.05612650215422E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.75</v>
+      </c>
+      <c r="M7">
+        <v>9.05612650215422E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.06</v>
@@ -529,10 +691,32 @@
       <c r="E8">
         <v>8.7261642795059602E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>9.8834281096097598E-2</v>
+      </c>
+      <c r="G8">
+        <v>9.3969444797005697E-2</v>
+      </c>
+      <c r="H8">
+        <v>8.8086906617569197E-2</v>
+      </c>
+      <c r="I8">
+        <v>9.1848171827685204E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>9.2000089426683446E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.7</v>
+      </c>
+      <c r="M8">
+        <v>9.2000089426683446E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>8.0000000000000002E-3</v>
@@ -543,210 +727,814 @@
       <c r="E9">
         <v>8.9482352529323003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>9.3232063186091202E-2</v>
+      </c>
+      <c r="G9">
+        <v>8.7658282961922102E-2</v>
+      </c>
+      <c r="H9">
+        <v>8.9207723648422499E-2</v>
+      </c>
+      <c r="I9">
+        <v>8.5250228336053405E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>8.8966130132362431E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.65</v>
+      </c>
+      <c r="M9">
+        <v>8.8966130132362431E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
       <c r="D10">
         <v>0.6</v>
       </c>
       <c r="E10">
         <v>9.0629889215482901E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>8.4741647995977901E-2</v>
+      </c>
+      <c r="G10">
+        <v>8.1053871918286599E-2</v>
+      </c>
+      <c r="H10">
+        <v>8.5557599302842194E-2</v>
+      </c>
+      <c r="I10">
+        <v>9.0112682097807997E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>8.6419138106079513E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.6</v>
+      </c>
+      <c r="M10">
+        <v>8.6419138106079513E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11">
         <v>0.55000000000000004</v>
       </c>
       <c r="E11">
         <v>8.7607417690271805E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>8.8764580440973101E-2</v>
+      </c>
+      <c r="G11">
+        <v>9.0630224666410394E-2</v>
+      </c>
+      <c r="H11">
+        <v>9.0078299116370095E-2</v>
+      </c>
+      <c r="I11">
+        <v>9.3348635735764796E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>9.0085831529958041E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M11">
+        <v>9.0085831529958041E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D12">
         <v>0.5</v>
       </c>
       <c r="E12">
         <v>9.3844044972247007E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>9.0168593414533302E-2</v>
+      </c>
+      <c r="G12">
+        <v>8.3413286201817802E-2</v>
+      </c>
+      <c r="H12">
+        <v>8.9464011285414202E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.2573696876398997E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>8.7892726550082262E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>8.7892726550082262E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13">
         <v>0.45</v>
       </c>
       <c r="E13">
         <v>9.4701002353121899E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>8.7026443530507397E-2</v>
+      </c>
+      <c r="G13">
+        <v>9.0702577453337804E-2</v>
+      </c>
+      <c r="H13">
+        <v>8.6650940743590005E-2</v>
+      </c>
+      <c r="I13">
+        <v>9.9638589428848207E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>9.1743910701881065E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.45</v>
+      </c>
+      <c r="M13">
+        <v>9.1743910701881065E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D14">
         <v>0.4</v>
       </c>
       <c r="E14">
         <v>9.9099963873809399E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>9.6994282574930202E-2</v>
+      </c>
+      <c r="G14">
+        <v>8.4557818364727699E-2</v>
+      </c>
+      <c r="H14">
+        <v>8.9702935754461796E-2</v>
+      </c>
+      <c r="I14">
+        <v>8.9986221587111503E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>9.2068244431008112E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.4</v>
+      </c>
+      <c r="M14">
+        <v>9.2068244431008112E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D15">
         <v>0.35</v>
       </c>
       <c r="E15">
         <v>9.1931389607339098E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>8.0740427010505295E-2</v>
+      </c>
+      <c r="G15">
+        <v>8.4646193416286195E-2</v>
+      </c>
+      <c r="H15">
+        <v>9.8008767037174593E-2</v>
+      </c>
+      <c r="I15">
+        <v>9.12355641779172E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>8.9312468249844471E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.35</v>
+      </c>
+      <c r="M15">
+        <v>8.9312468249844471E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D16">
         <v>0.3</v>
       </c>
       <c r="E16">
         <v>9.8643349244802697E-2</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>8.3599038600695202E-2</v>
+      </c>
+      <c r="G16">
+        <v>9.0053417880822995E-2</v>
+      </c>
+      <c r="H16">
+        <v>9.8249633001713604E-2</v>
+      </c>
+      <c r="I16">
+        <v>9.6929080311086505E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>9.3494903807824187E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+      <c r="M16">
+        <v>9.3494903807824187E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D17">
         <v>0.25</v>
       </c>
       <c r="E17">
         <v>7.3687476448010394E-2</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>0.11254874544644</v>
+      </c>
+      <c r="G17">
+        <v>8.4956853269923305E-2</v>
+      </c>
+      <c r="H17">
+        <v>8.1485199839623906E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.111176098422255</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>9.2770874685250526E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17">
+        <v>9.2770874685250526E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D18">
         <v>0.2</v>
       </c>
       <c r="E18">
         <v>6.0412233794352503E-2</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>8.6108926683480094E-2</v>
+      </c>
+      <c r="G18">
+        <v>8.7895354243365698E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.101445729633139</v>
+      </c>
+      <c r="I18">
+        <v>0.10790251686333199</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>8.8752952243533856E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.2</v>
+      </c>
+      <c r="M18">
+        <v>8.8752952243533856E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D19">
         <v>0.15</v>
       </c>
       <c r="E19">
         <v>7.7761913452957604E-2</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>0.11946456476940399</v>
+      </c>
+      <c r="H19">
+        <v>0.109142967247619</v>
+      </c>
+      <c r="I19">
+        <v>8.1600793921102394E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>9.6992559847770748E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.15</v>
+      </c>
+      <c r="M19">
+        <v>9.6992559847770748E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D20">
         <v>0.14000000000000001</v>
       </c>
       <c r="E20">
         <v>0.100635282394169</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>7.9556332496898696E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.109018532213617</v>
+      </c>
+      <c r="H20">
+        <v>0.121284564576424</v>
+      </c>
+      <c r="I20">
+        <v>0.105015673879857</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.10310207711219314</v>
+      </c>
+      <c r="L20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.10310207711219314</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D21">
         <v>0.13</v>
       </c>
       <c r="E21">
         <v>0.158736597947191</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>6.9980401166808995E-2</v>
+      </c>
+      <c r="G21">
+        <v>9.0638851492835307E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.15791113129192499</v>
+      </c>
+      <c r="I21">
+        <v>8.6537634038302599E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.11276092318741257</v>
+      </c>
+      <c r="L21">
+        <v>0.13</v>
+      </c>
+      <c r="M21">
+        <v>0.11276092318741257</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D22">
         <v>0.12</v>
       </c>
       <c r="E22">
         <v>8.32879939939834E-2</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0.145421704689011</v>
+      </c>
+      <c r="G22">
+        <v>0.115225296900417</v>
+      </c>
+      <c r="H22">
+        <v>0.110544176736822</v>
+      </c>
+      <c r="I22">
+        <v>9.9485582478867796E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.11079295095982022</v>
+      </c>
+      <c r="L22">
+        <v>0.12</v>
+      </c>
+      <c r="M22">
+        <v>0.11079295095982022</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D23">
         <v>0.11</v>
       </c>
       <c r="E23">
         <v>9.7137651169642902E-2</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>0.15498877582863099</v>
+      </c>
+      <c r="G23">
+        <v>9.4224407739110005E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.115045761694041</v>
+      </c>
+      <c r="I23">
+        <v>0.88354375108733996</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.26898806950375298</v>
+      </c>
+      <c r="L23">
+        <v>0.11</v>
+      </c>
+      <c r="M23">
+        <v>0.26898806950375298</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D24">
         <v>0.109</v>
       </c>
       <c r="E24">
         <v>0.159654173669523</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>0.80402253820728797</v>
+      </c>
+      <c r="G24">
+        <v>0.111682835738542</v>
+      </c>
+      <c r="H24">
+        <v>0.101164110347395</v>
+      </c>
+      <c r="I24">
+        <v>0.124777102668578</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.26026015212626519</v>
+      </c>
+      <c r="L24">
+        <v>0.109</v>
+      </c>
+      <c r="M24">
+        <v>0.26026015212626519</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D25">
         <v>0.108</v>
       </c>
       <c r="E25">
         <v>9.5014046215603803E-2</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>0.83628093644408896</v>
+      </c>
+      <c r="G25">
+        <v>0.141481411486127</v>
+      </c>
+      <c r="H25">
+        <v>0.69983862194630198</v>
+      </c>
+      <c r="I25">
+        <v>0.64173957675946902</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.48287091857031816</v>
+      </c>
+      <c r="L25">
+        <v>0.108</v>
+      </c>
+      <c r="M25">
+        <v>0.48287091857031816</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D26">
         <v>0.107</v>
       </c>
       <c r="E26">
         <v>0.112465594457735</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>0.110206826116127</v>
+      </c>
+      <c r="G26">
+        <v>0.13584520396361699</v>
+      </c>
+      <c r="H26">
+        <v>0.67574097923905196</v>
+      </c>
+      <c r="I26">
+        <v>0.185760464060507</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.24400381356740758</v>
+      </c>
+      <c r="L26">
+        <v>0.107</v>
+      </c>
+      <c r="M26">
+        <v>0.24400381356740758</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D27">
         <v>0.106</v>
       </c>
       <c r="E27">
         <v>0.10264684266709501</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>0.11472325210268799</v>
+      </c>
+      <c r="G27">
+        <v>0.142522056098705</v>
+      </c>
+      <c r="H27">
+        <v>0.23209975012958101</v>
+      </c>
+      <c r="I27">
+        <v>0.80967057227480499</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.28033249465457477</v>
+      </c>
+      <c r="L27">
+        <v>0.106</v>
+      </c>
+      <c r="M27">
+        <v>0.28033249465457477</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D28">
         <v>0.105</v>
       </c>
       <c r="E28">
         <v>0.126954194577406</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>0.91172423757837195</v>
+      </c>
+      <c r="G28">
+        <v>0.86417353505505501</v>
+      </c>
+      <c r="H28">
+        <v>0.77301556168406704</v>
+      </c>
+      <c r="I28">
+        <v>0.10686742103628399</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.55654698998623675</v>
+      </c>
+      <c r="L28">
+        <v>0.105</v>
+      </c>
+      <c r="M28">
+        <v>0.55654698998623675</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D29">
         <v>0.104</v>
       </c>
       <c r="E29">
         <v>0.937780906720736</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>0.71688248782075303</v>
+      </c>
+      <c r="G29">
+        <v>0.84892423926294602</v>
+      </c>
+      <c r="H29">
+        <v>0.14853940816551001</v>
+      </c>
+      <c r="I29">
+        <v>0.78560075021842402</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.68754555843767373</v>
+      </c>
+      <c r="L29">
+        <v>0.104</v>
+      </c>
+      <c r="M29">
+        <v>0.68754555843767373</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D30">
         <v>0.10299999999999999</v>
       </c>
       <c r="E30">
         <v>6.9289745068897304E-2</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0.13109080278635199</v>
+      </c>
+      <c r="G30">
+        <v>0.92889236374978601</v>
+      </c>
+      <c r="H30">
+        <v>0.80510724283704904</v>
+      </c>
+      <c r="I30">
+        <v>0.80965328173731899</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.54880668723588077</v>
+      </c>
+      <c r="L30">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.54880668723588077</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D31">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0.50820575411070501</v>
+      </c>
+      <c r="F31">
+        <v>0.92572215158239002</v>
+      </c>
+      <c r="G31">
+        <v>0.84784904492542301</v>
+      </c>
+      <c r="H31">
+        <v>8.2172050552064904E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.90007064471653497</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.65280392917742369</v>
+      </c>
+      <c r="L31">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.65280392917742369</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D32">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>0.73225200661652901</v>
+      </c>
+      <c r="F32">
+        <v>0.89609489843043399</v>
+      </c>
+      <c r="G32">
+        <v>0.92659912223783403</v>
+      </c>
+      <c r="H32">
+        <v>0.82291820971665897</v>
+      </c>
+      <c r="I32">
+        <v>0.83707119752969705</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.84298708690623059</v>
+      </c>
+      <c r="L32">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.84298708690623059</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D33">
         <v>0.1</v>
       </c>
       <c r="E33">
         <v>0.79698910455357996</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>0.85595332463689999</v>
+      </c>
+      <c r="G33">
+        <v>0.905504376947454</v>
+      </c>
+      <c r="H33">
+        <v>0.205611667265749</v>
+      </c>
+      <c r="I33">
+        <v>0.91321864071872805</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.73545542282448229</v>
+      </c>
+      <c r="L33">
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <v>0.73545542282448229</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D34">
         <v>0.05</v>
       </c>
       <c r="E34">
         <v>0.99072373435169703</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>0.99385193206308697</v>
+      </c>
+      <c r="G34">
+        <v>0.96017271385893099</v>
+      </c>
+      <c r="H34">
+        <v>0.97844725443349001</v>
+      </c>
+      <c r="I34">
+        <v>0.97483365520643195</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.97960585798272726</v>
+      </c>
+      <c r="L34">
+        <v>0.05</v>
+      </c>
+      <c r="M34">
+        <v>0.97960585798272726</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <v>0.98374397020247295</v>
       </c>
+      <c r="F35">
+        <v>0.99967227683071402</v>
+      </c>
+      <c r="G35">
+        <v>0.99967227683070603</v>
+      </c>
+      <c r="H35">
+        <v>0.99967227683071402</v>
+      </c>
+      <c r="I35">
+        <v>0.99967227683070603</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.99648661550506268</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0.99648661550506268</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>